--- a/s2cDNASample/s2CDNASample_H.BROWN_10.17.20.xlsx
+++ b/s2cDNASample/s2CDNASample_H.BROWN_10.17.20.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/s2cDNASample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C28E131C-224A-2F4C-BC51-B24ADA4E86CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{988EF496-000A-074A-AD03-FF1395074DA8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15380" yWindow="480" windowWidth="18220" windowHeight="18100" xr2:uid="{5A6F9EA7-5626-9D40-8D30-8D9EF1EA0619}"/>
   </bookViews>
@@ -421,6 +421,13 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
